--- a/Paper Docs/SacFreeprot_Loads_TNTP.xlsx
+++ b/Paper Docs/SacFreeprot_Loads_TNTP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsaleh\Documents\GitHub\PES_Project\Paper Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD8A2341-DED3-42FA-BB20-37155B7ECC92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C9B1C-FCE4-45BB-88E2-7AC7662C5A87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP Con plot" sheetId="9" r:id="rId1"/>
@@ -3331,6 +3331,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="652571736"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="years"/>
@@ -4784,6 +4785,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="786827936"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="years"/>
@@ -7992,7 +7994,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{826A19BC-81F9-4DC7-A037-028D98977143}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8014,7 +8016,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6629B782-681A-4AF1-BBBA-7640F2F441B5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10039,7 +10041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V2" sqref="V2:W45"/>
     </sheetView>
   </sheetViews>
